--- a/gitbook/cpp/drawing/stl/stl.xlsx
+++ b/gitbook/cpp/drawing/stl/stl.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="array" sheetId="1" r:id="rId1"/>
+    <sheet name="vector" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +58,22 @@
   </si>
   <si>
     <t>N-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -111,13 +128,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="B5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,4 +609,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D12:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="17" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/gitbook/cpp/drawing/stl/stl.xlsx
+++ b/gitbook/cpp/drawing/stl/stl.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="array" sheetId="1" r:id="rId1"/>
     <sheet name="vector" sheetId="2" r:id="rId2"/>
+    <sheet name="deque" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +75,86 @@
   </si>
   <si>
     <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首端插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首端删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾端插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾端删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert:O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_front:O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erase:O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_front:O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_back:O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_back:O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率相对高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率相对低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,11 +231,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -615,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D12:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -795,4 +891,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="4:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="5"/>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>